--- a/Group Assignments/STOR320_001_ROSTER.xlsx
+++ b/Group Assignments/STOR320_001_ROSTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 320\STOR320_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C9E2A0-15FF-4328-9B33-2EB34692DD76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4E0862-7725-4CF4-A27E-88EA469B48D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="3900" windowWidth="19200" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="1290" windowWidth="19200" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRADEBOOK_STOR320_02" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Yang,Edward</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Tian,Michele</t>
   </si>
   <si>
-    <t>Sui,Hui</t>
-  </si>
-  <si>
     <t>Stocker,Gabe Joseph</t>
   </si>
   <si>
-    <t>Spruill,Caspian Francis</t>
-  </si>
-  <si>
     <t>Song,Amy</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Schuster Jr,John John</t>
   </si>
   <si>
-    <t>Schuhler,Sarah Kate Katherine</t>
-  </si>
-  <si>
     <t>Schmitt,Justin</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>Lambert,Megan Nicole</t>
   </si>
   <si>
-    <t>Kolcusky,Katie Anne</t>
-  </si>
-  <si>
     <t>King,Carson Maxwell</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>Callahan,Emily Grayson</t>
   </si>
   <si>
-    <t>Buys,Stephen Christian</t>
-  </si>
-  <si>
     <t>Burns,Madison Macy</t>
   </si>
   <si>
@@ -292,6 +277,36 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Baker,Richard Link</t>
+  </si>
+  <si>
+    <t>Brown,Kayla</t>
+  </si>
+  <si>
+    <t>Chmielewski,Christina Irene</t>
+  </si>
+  <si>
+    <t>Ge,Sharon</t>
+  </si>
+  <si>
+    <t>Johnson,Coleman Allan</t>
+  </si>
+  <si>
+    <t>Massion,Elias Salomon</t>
+  </si>
+  <si>
+    <t>Reddy,Harith</t>
+  </si>
+  <si>
+    <t>Schuhler,Sarah Katherine</t>
+  </si>
+  <si>
+    <t>Woodie,Hunter Amelia</t>
+  </si>
+  <si>
+    <t>Zhao,Zhuoqun</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A88"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1152,247 +1167,247 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
@@ -1462,132 +1477,157 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
